--- a/base_final.xlsx
+++ b/base_final.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\OneDrive\Documentos\Insper\2019.2\Cie Dados\Tutorial_retirar_rt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roberto\Desktop\Insper\2° Semestre\Ciência dos Dados\Projeto2_CD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_F1C29DC7B1512DD45A170B032B99F327502E873F" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{D25B6702-B46F-4130-8C5A-DD200218D0AB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874F5896-4A5B-4BE5-91C9-C308700370F0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
+    <sheet name="Teste" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="562">
   <si>
     <t>rt @____jimmy: cinderela baiana &amp;gt;&amp;gt;&amp;gt;&amp;gt; star wars + senhor do anéis + harry potter https://t.co/lhve83hcjj</t>
   </si>
@@ -1881,6 +1882,9 @@
   </si>
   <si>
     <t>Treinamento</t>
+  </si>
+  <si>
+    <t>Teste</t>
   </si>
 </sst>
 </file>
@@ -1939,10 +1943,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2282,2820 +2292,3040 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A561"/>
+  <dimension ref="A1:B341"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A266" sqref="A266"/>
+    <sheetView tabSelected="1" topLeftCell="B44" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>209</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>210</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>211</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>212</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>213</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>214</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>215</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>216</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>217</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>218</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>219</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>220</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>221</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>222</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>223</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>224</v>
+      </c>
+      <c r="B26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>225</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>226</v>
+      </c>
+      <c r="B28" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>228</v>
+      </c>
+      <c r="B30" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>229</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>230</v>
+      </c>
+      <c r="B32" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>231</v>
+      </c>
+      <c r="B33" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>232</v>
+      </c>
+      <c r="B34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>233</v>
+      </c>
+      <c r="B35" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>234</v>
+      </c>
+      <c r="B36" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>235</v>
+      </c>
+      <c r="B37" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>236</v>
+      </c>
+      <c r="B38" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>237</v>
+      </c>
+      <c r="B39" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>238</v>
+      </c>
+      <c r="B40" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>239</v>
+      </c>
+      <c r="B41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>240</v>
+      </c>
+      <c r="B42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>241</v>
+      </c>
+      <c r="B43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>242</v>
+      </c>
+      <c r="B44" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>243</v>
+      </c>
+      <c r="B45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>244</v>
+      </c>
+      <c r="B46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>245</v>
+      </c>
+      <c r="B47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>246</v>
+      </c>
+      <c r="B48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>247</v>
+      </c>
+      <c r="B49" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>248</v>
+      </c>
+      <c r="B50" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>249</v>
+      </c>
+      <c r="B51" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>250</v>
+      </c>
+      <c r="B52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>251</v>
+      </c>
+      <c r="B53" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>252</v>
+      </c>
+      <c r="B54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>253</v>
+      </c>
+      <c r="B55" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>254</v>
+      </c>
+      <c r="B56" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>255</v>
+      </c>
+      <c r="B57" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>256</v>
+      </c>
+      <c r="B58" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>257</v>
+      </c>
+      <c r="B59" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>258</v>
+      </c>
+      <c r="B60" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>259</v>
+      </c>
+      <c r="B61" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>260</v>
+      </c>
+      <c r="B62" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>261</v>
+      </c>
+      <c r="B63" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>262</v>
+      </c>
+      <c r="B64" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>263</v>
+      </c>
+      <c r="B65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>539</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D34CFC62-8C1C-41F5-8A63-9889D729142D}">
+  <dimension ref="A1:A221"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A201" sqref="A201"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="255.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A222" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A223" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A224" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A225" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A226" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A227" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A228" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A229" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A230" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A231" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A232" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A233" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A234" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A235" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A236" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A237" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A238" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A239" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A240" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A241" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A242" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A243" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A244" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A245" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A246" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A247" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A248" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A249" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A250" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A251" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A252" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A253" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A254" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A255" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A256" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A257" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A258" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A259" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A260" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A261" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A262" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A263" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A264" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A265" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A266" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A267" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A268" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A269" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A270" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A271" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A272" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A273" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A274" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A275" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A276" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A277" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A278" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A279" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A280" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A281" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A282" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A283" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A284" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A285" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A286" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A287" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A288" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A289" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A290" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A291" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A292" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A293" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A294" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A295" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A296" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A297" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A298" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A299" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A300" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A301" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A302" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A303" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A304" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A305" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A306" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A307" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A308" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A309" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A310" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A311" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A312" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A313" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A314" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A315" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A316" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A317" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A318" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A319" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A320" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A321" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A322" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A323" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A324" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A325" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A326" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A327" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A328" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A329" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A330" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A331" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A332" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A333" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A334" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A335" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A336" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A337" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A338" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A339" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A340" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A341" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A342" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A343" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A344" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A345" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A346" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A347" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A348" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A349" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A350" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A351" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A352" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A353" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A354" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A355" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A356" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A357" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A358" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A359" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A360" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A361" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A362" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A363" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A364" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A365" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A366" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A367" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A368" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A369" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A370" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A371" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A372" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A373" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A374" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A375" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A376" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A377" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A378" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A379" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A380" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A381" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A382" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A383" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A384" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A385" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A386" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A387" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A388" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A389" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A390" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A391" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A392" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A393" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A394" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A395" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A396" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A397" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A398" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A399" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A400" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A401" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A402" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A403" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A404" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A405" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A406" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A407" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A408" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A409" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A410" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A411" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A412" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A413" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A414" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A415" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A416" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A417" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A418" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A419" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A420" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A421" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A422" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A423" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A424" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A425" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A426" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A427" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A428" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A429" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A430" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A431" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A432" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A433" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A434" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A435" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A436" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A437" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A438" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A439" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A440" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A441" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A442" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A443" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A444" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A445" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A446" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A447" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A448" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A449" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A450" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A451" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A452" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A453" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A454" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A455" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A456" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A457" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A458" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A459" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A460" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A461" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A462" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A463" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A464" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A465" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A466" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A467" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A468" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A469" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A470" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A471" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A472" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A473" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A474" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A475" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A476" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A477" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A478" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A479" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A480" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A481" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A482" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A483" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A484" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A485" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A486" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A487" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A488" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A489" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A490" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A491" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A492" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A493" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A494" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A495" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A496" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A497" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A498" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A499" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A500" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A501" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A502" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A503" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A504" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A505" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A506" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A507" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A508" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A509" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A510" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A511" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A512" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A513" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A514" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A515" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A516" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A517" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A518" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A519" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A520" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A521" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A522" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A523" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A524" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A525" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A526" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A527" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A528" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A529" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A530" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A531" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A532" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A533" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A534" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A535" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A536" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A537" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A538" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A539" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A540" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A541" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A542" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A543" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="544" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A544" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A545" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A546" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A547" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A548" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A549" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A550" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A551" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A552" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A553" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A554" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A555" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A556" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A557" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="558" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A558" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="559" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A559" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="560" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A560" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="561" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A561" t="s">
         <v>559</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/base_final.xlsx
+++ b/base_final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roberto\Desktop\Insper\2° Semestre\Ciência dos Dados\Projeto2_CD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\OneDrive\Documentos\Insper\2019.2\Cie Dados\Projeto2_CD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874F5896-4A5B-4BE5-91C9-C308700370F0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="13_ncr:1_{874F5896-4A5B-4BE5-91C9-C308700370F0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{0228EA36-A1D6-490B-9BCB-1FB62463C04F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -1943,7 +1943,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1954,6 +1954,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2294,22 +2295,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B341"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B44" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A125" sqref="A125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="255.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="3"/>
+    <col min="1" max="1" width="255.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>200</v>
       </c>
@@ -2317,7 +2318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>201</v>
       </c>
@@ -2325,7 +2326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>202</v>
       </c>
@@ -2333,7 +2334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>203</v>
       </c>
@@ -2341,7 +2342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>204</v>
       </c>
@@ -2349,7 +2350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>205</v>
       </c>
@@ -2357,7 +2358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>206</v>
       </c>
@@ -2365,7 +2366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>207</v>
       </c>
@@ -2373,7 +2374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>208</v>
       </c>
@@ -2381,7 +2382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>209</v>
       </c>
@@ -2389,7 +2390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>210</v>
       </c>
@@ -2397,7 +2398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>211</v>
       </c>
@@ -2405,7 +2406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>212</v>
       </c>
@@ -2413,7 +2414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>213</v>
       </c>
@@ -2421,7 +2422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>214</v>
       </c>
@@ -2429,7 +2430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>215</v>
       </c>
@@ -2437,7 +2438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>216</v>
       </c>
@@ -2445,7 +2446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>217</v>
       </c>
@@ -2453,7 +2454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>218</v>
       </c>
@@ -2461,7 +2462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>219</v>
       </c>
@@ -2469,7 +2470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>220</v>
       </c>
@@ -2477,7 +2478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>221</v>
       </c>
@@ -2485,7 +2486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>222</v>
       </c>
@@ -2493,7 +2494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>223</v>
       </c>
@@ -2501,7 +2502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>224</v>
       </c>
@@ -2509,7 +2510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>225</v>
       </c>
@@ -2517,7 +2518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>226</v>
       </c>
@@ -2525,7 +2526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>227</v>
       </c>
@@ -2533,7 +2534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>228</v>
       </c>
@@ -2541,7 +2542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>229</v>
       </c>
@@ -2549,7 +2550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>230</v>
       </c>
@@ -2557,7 +2558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>231</v>
       </c>
@@ -2565,7 +2566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>232</v>
       </c>
@@ -2573,7 +2574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>233</v>
       </c>
@@ -2581,7 +2582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>234</v>
       </c>
@@ -2589,7 +2590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>235</v>
       </c>
@@ -2597,7 +2598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>236</v>
       </c>
@@ -2605,7 +2606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>237</v>
       </c>
@@ -2613,7 +2614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>238</v>
       </c>
@@ -2621,7 +2622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>239</v>
       </c>
@@ -2629,7 +2630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>240</v>
       </c>
@@ -2637,7 +2638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>241</v>
       </c>
@@ -2645,7 +2646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>242</v>
       </c>
@@ -2653,7 +2654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>243</v>
       </c>
@@ -2661,7 +2662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>244</v>
       </c>
@@ -2669,7 +2670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>245</v>
       </c>
@@ -2677,7 +2678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>246</v>
       </c>
@@ -2685,7 +2686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>247</v>
       </c>
@@ -2693,7 +2694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>248</v>
       </c>
@@ -2701,7 +2702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>249</v>
       </c>
@@ -2709,7 +2710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>250</v>
       </c>
@@ -2717,7 +2718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>251</v>
       </c>
@@ -2725,7 +2726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>252</v>
       </c>
@@ -2733,7 +2734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>253</v>
       </c>
@@ -2741,7 +2742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>254</v>
       </c>
@@ -2749,7 +2750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>255</v>
       </c>
@@ -2757,7 +2758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>256</v>
       </c>
@@ -2765,7 +2766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>257</v>
       </c>
@@ -2773,7 +2774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>258</v>
       </c>
@@ -2781,7 +2782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>259</v>
       </c>
@@ -2789,7 +2790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>260</v>
       </c>
@@ -2797,7 +2798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>261</v>
       </c>
@@ -2805,7 +2806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>262</v>
       </c>
@@ -2813,7 +2814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>263</v>
       </c>
@@ -2821,1389 +2822,1566 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B70" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B71" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B72" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B73" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B75" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B76" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B78" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B79" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B80" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B82" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B83" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B85" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B87" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B89" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B90" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B91" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B94" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B95" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B97" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B98" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B99" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B100" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B101" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B102" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B103" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B104" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B105" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B106" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B107" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B108" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B109" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B110" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B111" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B112" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B113" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B114" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B115" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B116" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B117" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B118" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B119" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B120" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B121" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B122" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B123" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+      <c r="B124" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="4" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>539</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4215,1112 +4393,1112 @@
       <selection activeCell="A201" sqref="A201"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>559</v>
       </c>

--- a/base_final.xlsx
+++ b/base_final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\OneDrive\Documentos\Insper\2019.2\Cie Dados\Projeto2_CD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roberto\Desktop\Insper\2° Semestre\Ciência dos Dados\Projeto2_CD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="13_ncr:1_{874F5896-4A5B-4BE5-91C9-C308700370F0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{0228EA36-A1D6-490B-9BCB-1FB62463C04F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65372C28-2550-4BF8-83D4-D291D576233C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -2295,22 +2295,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B341"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A125" sqref="A125"/>
+    <sheetView tabSelected="1" topLeftCell="B137" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B158" sqref="B158"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="255.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="3"/>
+    <col min="1" max="1" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>200</v>
       </c>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>201</v>
       </c>
@@ -2326,7 +2326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>202</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>203</v>
       </c>
@@ -2342,7 +2342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>204</v>
       </c>
@@ -2350,7 +2350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>205</v>
       </c>
@@ -2358,7 +2358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>206</v>
       </c>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>207</v>
       </c>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>208</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>209</v>
       </c>
@@ -2390,7 +2390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>210</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>211</v>
       </c>
@@ -2406,7 +2406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>212</v>
       </c>
@@ -2414,7 +2414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>213</v>
       </c>
@@ -2422,7 +2422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>214</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>215</v>
       </c>
@@ -2438,7 +2438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>216</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>217</v>
       </c>
@@ -2454,7 +2454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>218</v>
       </c>
@@ -2462,7 +2462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>219</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>220</v>
       </c>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>221</v>
       </c>
@@ -2486,7 +2486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>222</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>223</v>
       </c>
@@ -2502,7 +2502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>224</v>
       </c>
@@ -2510,7 +2510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>225</v>
       </c>
@@ -2518,7 +2518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>226</v>
       </c>
@@ -2526,7 +2526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>227</v>
       </c>
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>228</v>
       </c>
@@ -2542,7 +2542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>229</v>
       </c>
@@ -2550,7 +2550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>230</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>231</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>232</v>
       </c>
@@ -2574,7 +2574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>233</v>
       </c>
@@ -2582,7 +2582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>234</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>235</v>
       </c>
@@ -2598,7 +2598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>236</v>
       </c>
@@ -2606,7 +2606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>237</v>
       </c>
@@ -2614,7 +2614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>238</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>239</v>
       </c>
@@ -2630,7 +2630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>240</v>
       </c>
@@ -2638,7 +2638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>241</v>
       </c>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>242</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>243</v>
       </c>
@@ -2662,7 +2662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>244</v>
       </c>
@@ -2670,7 +2670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>245</v>
       </c>
@@ -2678,7 +2678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>246</v>
       </c>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>247</v>
       </c>
@@ -2694,7 +2694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>248</v>
       </c>
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>249</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>250</v>
       </c>
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>251</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>252</v>
       </c>
@@ -2734,7 +2734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>253</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>254</v>
       </c>
@@ -2750,7 +2750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>255</v>
       </c>
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>256</v>
       </c>
@@ -2766,7 +2766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>257</v>
       </c>
@@ -2774,7 +2774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>258</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>259</v>
       </c>
@@ -2790,7 +2790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>260</v>
       </c>
@@ -2798,7 +2798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>261</v>
       </c>
@@ -2806,7 +2806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>262</v>
       </c>
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>263</v>
       </c>
@@ -2822,7 +2822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>264</v>
       </c>
@@ -2830,7 +2830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>265</v>
       </c>
@@ -2838,7 +2838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>266</v>
       </c>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>267</v>
       </c>
@@ -2854,7 +2854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>268</v>
       </c>
@@ -2862,7 +2862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>269</v>
       </c>
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>270</v>
       </c>
@@ -2878,7 +2878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>271</v>
       </c>
@@ -2886,7 +2886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>272</v>
       </c>
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>273</v>
       </c>
@@ -2902,7 +2902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>274</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>275</v>
       </c>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>276</v>
       </c>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>277</v>
       </c>
@@ -2934,7 +2934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>278</v>
       </c>
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>279</v>
       </c>
@@ -2950,7 +2950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>280</v>
       </c>
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>281</v>
       </c>
@@ -2966,7 +2966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>282</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>283</v>
       </c>
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>284</v>
       </c>
@@ -2990,7 +2990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>285</v>
       </c>
@@ -2998,7 +2998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>286</v>
       </c>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>287</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>288</v>
       </c>
@@ -3022,7 +3022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>289</v>
       </c>
@@ -3030,7 +3030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>290</v>
       </c>
@@ -3038,7 +3038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>291</v>
       </c>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>292</v>
       </c>
@@ -3054,7 +3054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>293</v>
       </c>
@@ -3062,7 +3062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>294</v>
       </c>
@@ -3070,7 +3070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>295</v>
       </c>
@@ -3078,7 +3078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>296</v>
       </c>
@@ -3086,7 +3086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>297</v>
       </c>
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>298</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>299</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>300</v>
       </c>
@@ -3118,7 +3118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>301</v>
       </c>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>302</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>303</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>304</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>305</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>306</v>
       </c>
@@ -3166,7 +3166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>307</v>
       </c>
@@ -3174,7 +3174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>308</v>
       </c>
@@ -3182,7 +3182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>309</v>
       </c>
@@ -3190,7 +3190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>310</v>
       </c>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>311</v>
       </c>
@@ -3206,7 +3206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>312</v>
       </c>
@@ -3214,7 +3214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>313</v>
       </c>
@@ -3222,7 +3222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>314</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>315</v>
       </c>
@@ -3238,7 +3238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>316</v>
       </c>
@@ -3246,7 +3246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>317</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>318</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>319</v>
       </c>
@@ -3270,7 +3270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>320</v>
       </c>
@@ -3278,7 +3278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>321</v>
       </c>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>322</v>
       </c>
@@ -3294,1087 +3294,1186 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B125" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B126" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B127" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B128" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B129" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B130" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B131" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B132" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B133" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B134" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B135" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B136" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B137" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B138" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B139" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B140" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B141" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B142" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B143" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B144" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B145" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B146" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B147" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B148" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B149" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B150" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B151" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B152" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B153" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B154" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B155" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B156" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B157" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>539</v>
       </c>
@@ -4393,1112 +4492,1112 @@
       <selection activeCell="A201" sqref="A201"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="255.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>559</v>
       </c>

--- a/base_final.xlsx
+++ b/base_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roberto\Desktop\Insper\2° Semestre\Ciência dos Dados\Projeto2_CD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65372C28-2550-4BF8-83D4-D291D576233C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0C92F2-58F7-4AFB-8842-32D0D9C9A016}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2295,8 +2295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B341"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B137" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B158" sqref="B158"/>
+    <sheetView tabSelected="1" topLeftCell="A328" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A342" sqref="A342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3562,920 +3562,1472 @@
       <c r="A158" t="s">
         <v>356</v>
       </c>
+      <c r="B158" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>357</v>
       </c>
+      <c r="B159" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B160" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B161" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B162" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B163" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B164" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B165" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B166" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B167" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B168" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B169" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B170" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B171" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B172" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B173" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B174" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B175" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B176" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B177" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B178" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B179" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B180" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B181" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B182" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B183" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B184" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B185" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B186" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B187" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B188" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B189" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B190" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B191" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B192" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B193" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B194" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B195" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B196" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B197" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B198" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B199" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B200" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B201" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B202" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B203" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B204" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B205" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B206" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B207" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B208" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B209" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B210" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B211" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B212" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B213" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B214" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B215" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B216" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B217" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B218" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B219" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B220" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B221" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B222" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B223" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B224" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B225" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B226" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B227" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B228" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B229" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B230" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B231" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B232" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B233" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B234" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B235" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B236" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B237" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B238" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B239" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B240" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B241" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B242" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B243" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B244" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B245" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B246" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B247" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B248" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B249" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B250" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B251" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B252" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B253" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B254" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B255" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B256" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B257" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B258" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B259" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B260" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B261" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B262" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B263" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B264" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B265" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B266" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B267" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B268" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B269" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B270" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B271" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B272" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B273" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B274" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B275" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B276" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B277" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B278" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B279" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B280" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B281" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B282" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B283" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B284" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B285" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B286" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B287" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B288" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B289" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B290" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B291" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B292" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B293" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B294" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B295" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B296" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B297" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B298" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B299" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B300" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B301" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B302" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B303" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B304" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B305" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B306" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B307" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B308" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B309" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B310" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B311" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B312" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B313" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B314" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B315" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B316" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B317" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B318" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B319" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B320" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B321" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B322" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B323" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B324" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B325" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B326" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B327" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B328" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B329" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B330" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B331" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B332" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B333" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B334" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B335" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B336" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B337" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B338" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B339" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B340" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>539</v>
+      </c>
+      <c r="B341" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/base_final.xlsx
+++ b/base_final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roberto\Desktop\Insper\2° Semestre\Ciência dos Dados\Projeto2_CD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0C92F2-58F7-4AFB-8842-32D0D9C9A016}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16AA8FEB-7EA2-42D0-A842-EAAA96476156}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -2295,9 +2295,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B341"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A328" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A342" sqref="A342"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5038,813 +5036,1273 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D34CFC62-8C1C-41F5-8A63-9889D729142D}">
-  <dimension ref="A1:A221"/>
+  <dimension ref="A1:B221"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A201" sqref="A201"/>
+    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="A155" sqref="A155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B28" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B36" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B37" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B38" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B39" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B40" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B42" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B46" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B47" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B52" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B53" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B55" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B56" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B60" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B66" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B67" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B68" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B69" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B73" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B74" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B76" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B78" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B79" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B80" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B81" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B82" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B84" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B85" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B90" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B92" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B95" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B96" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B97" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B102" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B103" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B104" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B105" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B106" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B107" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B108" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B109" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B110" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B111" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B112" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B113" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B114" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B115" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B116" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B117" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B118" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B119" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B120" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B121" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B122" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B123" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B124" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B125" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B126" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B127" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B128" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B129" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B130" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B131" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B132" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B133" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B134" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B135" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B136" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B137" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B138" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B139" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B140" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B141" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B142" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B143" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B144" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B145" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B146" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B147" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B148" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B149" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B150" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B151" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B152" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B153" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B154" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>158</v>
       </c>

--- a/base_final.xlsx
+++ b/base_final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roberto\Desktop\Insper\2° Semestre\Ciência dos Dados\Projeto2_CD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\OneDrive\Documentos\Insper\2019.2\Cie Dados\Projeto2_CD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16AA8FEB-7EA2-42D0-A842-EAAA96476156}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="13_ncr:1_{16AA8FEB-7EA2-42D0-A842-EAAA96476156}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{75CC5797-173B-472A-839A-B8531801CE1D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -2297,18 +2297,18 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="255.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="3"/>
+    <col min="1" max="1" width="255.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>200</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>201</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>202</v>
       </c>
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>203</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>204</v>
       </c>
@@ -2348,7 +2348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>205</v>
       </c>
@@ -2356,7 +2356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>206</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>207</v>
       </c>
@@ -2372,7 +2372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>208</v>
       </c>
@@ -2380,7 +2380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>209</v>
       </c>
@@ -2388,7 +2388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>210</v>
       </c>
@@ -2396,7 +2396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>211</v>
       </c>
@@ -2404,7 +2404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>212</v>
       </c>
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>213</v>
       </c>
@@ -2420,7 +2420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>214</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>215</v>
       </c>
@@ -2436,7 +2436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>216</v>
       </c>
@@ -2444,7 +2444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>217</v>
       </c>
@@ -2452,7 +2452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>218</v>
       </c>
@@ -2460,7 +2460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>219</v>
       </c>
@@ -2468,7 +2468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>220</v>
       </c>
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>221</v>
       </c>
@@ -2484,7 +2484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>222</v>
       </c>
@@ -2492,7 +2492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>223</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>224</v>
       </c>
@@ -2508,7 +2508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>225</v>
       </c>
@@ -2516,7 +2516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>226</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>227</v>
       </c>
@@ -2532,7 +2532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>228</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>229</v>
       </c>
@@ -2548,7 +2548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>230</v>
       </c>
@@ -2556,7 +2556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>231</v>
       </c>
@@ -2564,7 +2564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>232</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>233</v>
       </c>
@@ -2580,7 +2580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>234</v>
       </c>
@@ -2588,7 +2588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>235</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>236</v>
       </c>
@@ -2604,7 +2604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>237</v>
       </c>
@@ -2612,7 +2612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>238</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>239</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>240</v>
       </c>
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>241</v>
       </c>
@@ -2644,7 +2644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>242</v>
       </c>
@@ -2652,7 +2652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>243</v>
       </c>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>244</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>245</v>
       </c>
@@ -2676,7 +2676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>246</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>247</v>
       </c>
@@ -2692,7 +2692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>248</v>
       </c>
@@ -2700,7 +2700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>249</v>
       </c>
@@ -2708,7 +2708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>250</v>
       </c>
@@ -2716,7 +2716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>251</v>
       </c>
@@ -2724,7 +2724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>252</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>253</v>
       </c>
@@ -2740,7 +2740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>254</v>
       </c>
@@ -2748,7 +2748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>255</v>
       </c>
@@ -2756,7 +2756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>256</v>
       </c>
@@ -2764,7 +2764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>257</v>
       </c>
@@ -2772,7 +2772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>258</v>
       </c>
@@ -2780,7 +2780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>259</v>
       </c>
@@ -2788,7 +2788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>260</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>261</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>262</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>263</v>
       </c>
@@ -2820,7 +2820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>264</v>
       </c>
@@ -2828,7 +2828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>265</v>
       </c>
@@ -2836,7 +2836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>266</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>267</v>
       </c>
@@ -2852,7 +2852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>268</v>
       </c>
@@ -2860,7 +2860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>269</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>270</v>
       </c>
@@ -2876,7 +2876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>271</v>
       </c>
@@ -2884,7 +2884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>272</v>
       </c>
@@ -2892,7 +2892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>273</v>
       </c>
@@ -2900,7 +2900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>274</v>
       </c>
@@ -2908,7 +2908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>275</v>
       </c>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>276</v>
       </c>
@@ -2924,7 +2924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>277</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>278</v>
       </c>
@@ -2940,7 +2940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>279</v>
       </c>
@@ -2948,7 +2948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>280</v>
       </c>
@@ -2956,7 +2956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>281</v>
       </c>
@@ -2964,7 +2964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>282</v>
       </c>
@@ -2972,7 +2972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>283</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>284</v>
       </c>
@@ -2988,7 +2988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>285</v>
       </c>
@@ -2996,7 +2996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>286</v>
       </c>
@@ -3004,7 +3004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>287</v>
       </c>
@@ -3012,7 +3012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>288</v>
       </c>
@@ -3020,7 +3020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>289</v>
       </c>
@@ -3028,7 +3028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>290</v>
       </c>
@@ -3036,7 +3036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>291</v>
       </c>
@@ -3044,7 +3044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>292</v>
       </c>
@@ -3052,7 +3052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>293</v>
       </c>
@@ -3060,7 +3060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>294</v>
       </c>
@@ -3068,7 +3068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>295</v>
       </c>
@@ -3076,7 +3076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>296</v>
       </c>
@@ -3084,7 +3084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>297</v>
       </c>
@@ -3092,7 +3092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>298</v>
       </c>
@@ -3100,7 +3100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>299</v>
       </c>
@@ -3108,7 +3108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>300</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>301</v>
       </c>
@@ -3124,7 +3124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>302</v>
       </c>
@@ -3132,7 +3132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>303</v>
       </c>
@@ -3140,7 +3140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>304</v>
       </c>
@@ -3148,7 +3148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>305</v>
       </c>
@@ -3156,7 +3156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>306</v>
       </c>
@@ -3164,7 +3164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>307</v>
       </c>
@@ -3172,7 +3172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>308</v>
       </c>
@@ -3180,7 +3180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>309</v>
       </c>
@@ -3188,7 +3188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>310</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>311</v>
       </c>
@@ -3204,7 +3204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>312</v>
       </c>
@@ -3212,7 +3212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>313</v>
       </c>
@@ -3220,7 +3220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>314</v>
       </c>
@@ -3228,7 +3228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>315</v>
       </c>
@@ -3236,7 +3236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>316</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>317</v>
       </c>
@@ -3252,7 +3252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>318</v>
       </c>
@@ -3260,7 +3260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>319</v>
       </c>
@@ -3268,7 +3268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>320</v>
       </c>
@@ -3276,7 +3276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>321</v>
       </c>
@@ -3284,7 +3284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>322</v>
       </c>
@@ -3292,7 +3292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
         <v>323</v>
       </c>
@@ -3300,7 +3300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>324</v>
       </c>
@@ -3308,7 +3308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>325</v>
       </c>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>326</v>
       </c>
@@ -3324,7 +3324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>327</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>328</v>
       </c>
@@ -3340,7 +3340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>329</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>330</v>
       </c>
@@ -3356,7 +3356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>331</v>
       </c>
@@ -3364,7 +3364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>332</v>
       </c>
@@ -3372,7 +3372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>333</v>
       </c>
@@ -3380,7 +3380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>334</v>
       </c>
@@ -3388,7 +3388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>335</v>
       </c>
@@ -3396,7 +3396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>336</v>
       </c>
@@ -3404,7 +3404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>337</v>
       </c>
@@ -3412,7 +3412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>338</v>
       </c>
@@ -3420,7 +3420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>339</v>
       </c>
@@ -3428,7 +3428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>340</v>
       </c>
@@ -3436,7 +3436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>341</v>
       </c>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>342</v>
       </c>
@@ -3452,7 +3452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>343</v>
       </c>
@@ -3460,7 +3460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>344</v>
       </c>
@@ -3468,7 +3468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>345</v>
       </c>
@@ -3476,7 +3476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>346</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>347</v>
       </c>
@@ -3492,7 +3492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>348</v>
       </c>
@@ -3500,7 +3500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>349</v>
       </c>
@@ -3508,7 +3508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>350</v>
       </c>
@@ -3516,7 +3516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>351</v>
       </c>
@@ -3524,7 +3524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>352</v>
       </c>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>353</v>
       </c>
@@ -3540,7 +3540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>354</v>
       </c>
@@ -3548,7 +3548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>355</v>
       </c>
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>356</v>
       </c>
@@ -3564,7 +3564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>357</v>
       </c>
@@ -3572,7 +3572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>358</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>359</v>
       </c>
@@ -3588,7 +3588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>360</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>361</v>
       </c>
@@ -3604,7 +3604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>362</v>
       </c>
@@ -3612,7 +3612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>363</v>
       </c>
@@ -3620,7 +3620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>364</v>
       </c>
@@ -3628,7 +3628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>365</v>
       </c>
@@ -3636,7 +3636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>366</v>
       </c>
@@ -3644,7 +3644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>367</v>
       </c>
@@ -3652,7 +3652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>368</v>
       </c>
@@ -3660,7 +3660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>369</v>
       </c>
@@ -3668,7 +3668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>370</v>
       </c>
@@ -3676,7 +3676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>371</v>
       </c>
@@ -3684,7 +3684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>372</v>
       </c>
@@ -3692,7 +3692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>373</v>
       </c>
@@ -3700,7 +3700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>374</v>
       </c>
@@ -3708,7 +3708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>375</v>
       </c>
@@ -3716,7 +3716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>376</v>
       </c>
@@ -3724,7 +3724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>377</v>
       </c>
@@ -3732,7 +3732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>378</v>
       </c>
@@ -3740,7 +3740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>379</v>
       </c>
@@ -3748,7 +3748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>380</v>
       </c>
@@ -3756,7 +3756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>381</v>
       </c>
@@ -3764,7 +3764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>382</v>
       </c>
@@ -3772,7 +3772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>383</v>
       </c>
@@ -3780,7 +3780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>384</v>
       </c>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>385</v>
       </c>
@@ -3796,7 +3796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>386</v>
       </c>
@@ -3804,7 +3804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>387</v>
       </c>
@@ -3812,7 +3812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>388</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>389</v>
       </c>
@@ -3828,7 +3828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>390</v>
       </c>
@@ -3836,7 +3836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>391</v>
       </c>
@@ -3844,7 +3844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>392</v>
       </c>
@@ -3852,7 +3852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>393</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>394</v>
       </c>
@@ -3868,7 +3868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>395</v>
       </c>
@@ -3876,7 +3876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>396</v>
       </c>
@@ -3884,7 +3884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>397</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>398</v>
       </c>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>399</v>
       </c>
@@ -3908,7 +3908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>400</v>
       </c>
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>401</v>
       </c>
@@ -3924,7 +3924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>402</v>
       </c>
@@ -3932,7 +3932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>403</v>
       </c>
@@ -3940,7 +3940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>404</v>
       </c>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>405</v>
       </c>
@@ -3956,7 +3956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>406</v>
       </c>
@@ -3964,7 +3964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>407</v>
       </c>
@@ -3972,7 +3972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>408</v>
       </c>
@@ -3980,7 +3980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>409</v>
       </c>
@@ -3988,7 +3988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>410</v>
       </c>
@@ -3996,7 +3996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>411</v>
       </c>
@@ -4004,7 +4004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>412</v>
       </c>
@@ -4012,7 +4012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>413</v>
       </c>
@@ -4020,7 +4020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>414</v>
       </c>
@@ -4028,7 +4028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>415</v>
       </c>
@@ -4036,7 +4036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>416</v>
       </c>
@@ -4044,7 +4044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>417</v>
       </c>
@@ -4052,7 +4052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>418</v>
       </c>
@@ -4060,7 +4060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>419</v>
       </c>
@@ -4068,7 +4068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>420</v>
       </c>
@@ -4076,7 +4076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>421</v>
       </c>
@@ -4084,7 +4084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>422</v>
       </c>
@@ -4092,7 +4092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>423</v>
       </c>
@@ -4100,7 +4100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>424</v>
       </c>
@@ -4108,7 +4108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>425</v>
       </c>
@@ -4116,7 +4116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>426</v>
       </c>
@@ -4124,7 +4124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>427</v>
       </c>
@@ -4132,7 +4132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>428</v>
       </c>
@@ -4140,7 +4140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>429</v>
       </c>
@@ -4148,7 +4148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>430</v>
       </c>
@@ -4156,7 +4156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>431</v>
       </c>
@@ -4164,7 +4164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>432</v>
       </c>
@@ -4172,7 +4172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>433</v>
       </c>
@@ -4180,7 +4180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>434</v>
       </c>
@@ -4188,7 +4188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>435</v>
       </c>
@@ -4196,7 +4196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>436</v>
       </c>
@@ -4204,7 +4204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>437</v>
       </c>
@@ -4212,7 +4212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>438</v>
       </c>
@@ -4220,7 +4220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>439</v>
       </c>
@@ -4228,7 +4228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>440</v>
       </c>
@@ -4236,7 +4236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>441</v>
       </c>
@@ -4244,7 +4244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>442</v>
       </c>
@@ -4252,7 +4252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>443</v>
       </c>
@@ -4260,7 +4260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>444</v>
       </c>
@@ -4268,7 +4268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>445</v>
       </c>
@@ -4276,7 +4276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>446</v>
       </c>
@@ -4284,7 +4284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>447</v>
       </c>
@@ -4292,7 +4292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>448</v>
       </c>
@@ -4300,7 +4300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>449</v>
       </c>
@@ -4308,7 +4308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>450</v>
       </c>
@@ -4316,7 +4316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>451</v>
       </c>
@@ -4324,7 +4324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>452</v>
       </c>
@@ -4332,7 +4332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>453</v>
       </c>
@@ -4340,7 +4340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>454</v>
       </c>
@@ -4348,7 +4348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>455</v>
       </c>
@@ -4356,7 +4356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>456</v>
       </c>
@@ -4364,7 +4364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>457</v>
       </c>
@@ -4372,7 +4372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>458</v>
       </c>
@@ -4380,7 +4380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>459</v>
       </c>
@@ -4388,7 +4388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>460</v>
       </c>
@@ -4396,7 +4396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>461</v>
       </c>
@@ -4404,7 +4404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>462</v>
       </c>
@@ -4412,7 +4412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>463</v>
       </c>
@@ -4420,7 +4420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>464</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>465</v>
       </c>
@@ -4436,7 +4436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>466</v>
       </c>
@@ -4444,7 +4444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>467</v>
       </c>
@@ -4452,7 +4452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>468</v>
       </c>
@@ -4460,7 +4460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>469</v>
       </c>
@@ -4468,7 +4468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>470</v>
       </c>
@@ -4476,7 +4476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>471</v>
       </c>
@@ -4484,7 +4484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>472</v>
       </c>
@@ -4492,7 +4492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>473</v>
       </c>
@@ -4500,7 +4500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>474</v>
       </c>
@@ -4508,7 +4508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>475</v>
       </c>
@@ -4516,7 +4516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>476</v>
       </c>
@@ -4524,7 +4524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>477</v>
       </c>
@@ -4532,7 +4532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>478</v>
       </c>
@@ -4540,7 +4540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>479</v>
       </c>
@@ -4548,7 +4548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>480</v>
       </c>
@@ -4556,7 +4556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>481</v>
       </c>
@@ -4564,7 +4564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>482</v>
       </c>
@@ -4572,7 +4572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>483</v>
       </c>
@@ -4580,7 +4580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>484</v>
       </c>
@@ -4588,7 +4588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>485</v>
       </c>
@@ -4596,7 +4596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>486</v>
       </c>
@@ -4604,7 +4604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>487</v>
       </c>
@@ -4612,7 +4612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>488</v>
       </c>
@@ -4620,7 +4620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>489</v>
       </c>
@@ -4628,7 +4628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>490</v>
       </c>
@@ -4636,7 +4636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>491</v>
       </c>
@@ -4644,7 +4644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>492</v>
       </c>
@@ -4652,7 +4652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>493</v>
       </c>
@@ -4660,7 +4660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>494</v>
       </c>
@@ -4668,7 +4668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>495</v>
       </c>
@@ -4676,7 +4676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>496</v>
       </c>
@@ -4684,7 +4684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>497</v>
       </c>
@@ -4692,7 +4692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>498</v>
       </c>
@@ -4700,7 +4700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>499</v>
       </c>
@@ -4708,7 +4708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>500</v>
       </c>
@@ -4716,7 +4716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>501</v>
       </c>
@@ -4724,7 +4724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>502</v>
       </c>
@@ -4732,7 +4732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>503</v>
       </c>
@@ -4740,7 +4740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>504</v>
       </c>
@@ -4748,7 +4748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>505</v>
       </c>
@@ -4756,7 +4756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>506</v>
       </c>
@@ -4764,7 +4764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>507</v>
       </c>
@@ -4772,7 +4772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>508</v>
       </c>
@@ -4780,7 +4780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>509</v>
       </c>
@@ -4788,7 +4788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>510</v>
       </c>
@@ -4796,7 +4796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>511</v>
       </c>
@@ -4804,7 +4804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>512</v>
       </c>
@@ -4812,7 +4812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>513</v>
       </c>
@@ -4820,7 +4820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>514</v>
       </c>
@@ -4828,7 +4828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>515</v>
       </c>
@@ -4836,7 +4836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>516</v>
       </c>
@@ -4844,7 +4844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>517</v>
       </c>
@@ -4852,7 +4852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>518</v>
       </c>
@@ -4860,7 +4860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>519</v>
       </c>
@@ -4868,7 +4868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>520</v>
       </c>
@@ -4876,7 +4876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>521</v>
       </c>
@@ -4884,7 +4884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>522</v>
       </c>
@@ -4892,7 +4892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>523</v>
       </c>
@@ -4900,7 +4900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>524</v>
       </c>
@@ -4908,7 +4908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>525</v>
       </c>
@@ -4916,7 +4916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>526</v>
       </c>
@@ -4924,7 +4924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>527</v>
       </c>
@@ -4932,7 +4932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>528</v>
       </c>
@@ -4940,7 +4940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>529</v>
       </c>
@@ -4948,7 +4948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>530</v>
       </c>
@@ -4956,7 +4956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>531</v>
       </c>
@@ -4964,7 +4964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>532</v>
       </c>
@@ -4972,7 +4972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>533</v>
       </c>
@@ -4980,7 +4980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>534</v>
       </c>
@@ -4988,7 +4988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>535</v>
       </c>
@@ -4996,7 +4996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>536</v>
       </c>
@@ -5004,7 +5004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>537</v>
       </c>
@@ -5012,7 +5012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>538</v>
       </c>
@@ -5020,7 +5020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>539</v>
       </c>
@@ -5038,22 +5038,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D34CFC62-8C1C-41F5-8A63-9889D729142D}">
   <dimension ref="A1:B221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="A155" sqref="A155"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="A220" sqref="A220"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="255.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="3"/>
+    <col min="1" max="1" width="255.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5061,7 +5061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5069,7 +5069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -5077,7 +5077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -5085,7 +5085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -5093,7 +5093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -5101,7 +5101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -5109,7 +5109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -5117,7 +5117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -5125,7 +5125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -5133,7 +5133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -5141,7 +5141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -5149,7 +5149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -5157,7 +5157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -5165,7 +5165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -5173,7 +5173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -5181,7 +5181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -5189,7 +5189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -5197,7 +5197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -5205,7 +5205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -5213,7 +5213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -5221,7 +5221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -5229,7 +5229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -5237,7 +5237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -5245,7 +5245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -5253,7 +5253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -5261,7 +5261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -5269,7 +5269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -5277,7 +5277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -5285,7 +5285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -5293,7 +5293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -5301,7 +5301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -5309,7 +5309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -5317,7 +5317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -5325,7 +5325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -5333,7 +5333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -5341,7 +5341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -5349,7 +5349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -5357,7 +5357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -5365,7 +5365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -5373,7 +5373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -5381,7 +5381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -5389,7 +5389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -5397,7 +5397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -5405,7 +5405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -5413,7 +5413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -5421,7 +5421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -5429,7 +5429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -5437,7 +5437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -5445,7 +5445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -5453,7 +5453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -5461,7 +5461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -5469,7 +5469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -5477,7 +5477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -5485,7 +5485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -5493,7 +5493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -5501,7 +5501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -5509,7 +5509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -5517,7 +5517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -5525,7 +5525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -5533,7 +5533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -5541,7 +5541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -5549,7 +5549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -5557,7 +5557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -5565,7 +5565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -5573,7 +5573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -5581,7 +5581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -5589,7 +5589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -5597,7 +5597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -5605,7 +5605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -5613,7 +5613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -5621,7 +5621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -5629,7 +5629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -5637,7 +5637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -5645,7 +5645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -5653,7 +5653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -5661,7 +5661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -5669,7 +5669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -5677,7 +5677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -5685,7 +5685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -5693,7 +5693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>80</v>
       </c>
@@ -5701,7 +5701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>81</v>
       </c>
@@ -5709,7 +5709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -5717,7 +5717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>83</v>
       </c>
@@ -5725,7 +5725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>84</v>
       </c>
@@ -5733,7 +5733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>85</v>
       </c>
@@ -5741,7 +5741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>86</v>
       </c>
@@ -5749,7 +5749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -5757,7 +5757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -5765,7 +5765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>89</v>
       </c>
@@ -5773,7 +5773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>90</v>
       </c>
@@ -5781,7 +5781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>91</v>
       </c>
@@ -5789,7 +5789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>92</v>
       </c>
@@ -5797,7 +5797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>93</v>
       </c>
@@ -5805,7 +5805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>94</v>
       </c>
@@ -5813,7 +5813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>95</v>
       </c>
@@ -5821,7 +5821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>96</v>
       </c>
@@ -5829,7 +5829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>97</v>
       </c>
@@ -5837,7 +5837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>98</v>
       </c>
@@ -5845,7 +5845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>99</v>
       </c>
@@ -5853,7 +5853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>100</v>
       </c>
@@ -5861,7 +5861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>101</v>
       </c>
@@ -5869,7 +5869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>102</v>
       </c>
@@ -5877,7 +5877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>103</v>
       </c>
@@ -5885,7 +5885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>104</v>
       </c>
@@ -5893,7 +5893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>105</v>
       </c>
@@ -5901,7 +5901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>106</v>
       </c>
@@ -5909,7 +5909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>107</v>
       </c>
@@ -5917,7 +5917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>108</v>
       </c>
@@ -5925,7 +5925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>109</v>
       </c>
@@ -5933,7 +5933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>110</v>
       </c>
@@ -5941,7 +5941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>111</v>
       </c>
@@ -5949,7 +5949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>112</v>
       </c>
@@ -5957,7 +5957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>113</v>
       </c>
@@ -5965,7 +5965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>114</v>
       </c>
@@ -5973,7 +5973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>115</v>
       </c>
@@ -5981,7 +5981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>116</v>
       </c>
@@ -5989,7 +5989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>117</v>
       </c>
@@ -5997,7 +5997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>118</v>
       </c>
@@ -6005,7 +6005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>119</v>
       </c>
@@ -6013,7 +6013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>120</v>
       </c>
@@ -6021,7 +6021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>121</v>
       </c>
@@ -6029,7 +6029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>122</v>
       </c>
@@ -6037,7 +6037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>123</v>
       </c>
@@ -6045,7 +6045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>124</v>
       </c>
@@ -6053,7 +6053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>125</v>
       </c>
@@ -6061,7 +6061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>126</v>
       </c>
@@ -6069,7 +6069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>127</v>
       </c>
@@ -6077,7 +6077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>128</v>
       </c>
@@ -6085,7 +6085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>129</v>
       </c>
@@ -6093,7 +6093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>130</v>
       </c>
@@ -6101,7 +6101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>131</v>
       </c>
@@ -6109,7 +6109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>132</v>
       </c>
@@ -6117,7 +6117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>133</v>
       </c>
@@ -6125,7 +6125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>134</v>
       </c>
@@ -6133,7 +6133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>135</v>
       </c>
@@ -6141,7 +6141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>136</v>
       </c>
@@ -6149,7 +6149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>137</v>
       </c>
@@ -6157,7 +6157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>138</v>
       </c>
@@ -6165,7 +6165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>139</v>
       </c>
@@ -6173,7 +6173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>140</v>
       </c>
@@ -6181,7 +6181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>141</v>
       </c>
@@ -6189,7 +6189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>142</v>
       </c>
@@ -6197,7 +6197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>143</v>
       </c>
@@ -6205,7 +6205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>144</v>
       </c>
@@ -6213,7 +6213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>145</v>
       </c>
@@ -6221,7 +6221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>146</v>
       </c>
@@ -6229,7 +6229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>147</v>
       </c>
@@ -6237,7 +6237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>148</v>
       </c>
@@ -6245,7 +6245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>149</v>
       </c>
@@ -6253,7 +6253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>150</v>
       </c>
@@ -6261,7 +6261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>151</v>
       </c>
@@ -6269,7 +6269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>152</v>
       </c>
@@ -6277,339 +6277,540 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B155" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B156" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B157" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B158" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B159" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B160" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B161" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B162" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B163" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B164" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B165" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B166" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B167" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B168" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B169" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B170" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B171" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B172" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B173" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B174" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B175" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B176" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B177" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B178" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B179" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B180" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B181" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B182" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B183" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B184" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B185" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B186" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B187" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B188" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B189" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B190" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B191" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B192" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B193" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B194" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B195" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B196" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B197" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B198" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B199" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B200" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B201" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B202" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B203" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B204" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B205" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B206" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B207" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B208" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B209" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B210" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B211" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B212" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B213" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B214" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B215" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B216" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B217" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B218" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B219" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B220" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>559</v>
+      </c>
+      <c r="B221" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/base_final.xlsx
+++ b/base_final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\OneDrive\Documentos\Insper\2019.2\Cie Dados\Projeto2_CD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roberto\Desktop\Insper\2° Semestre\Ciência dos Dados\Projeto2_CD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="13_ncr:1_{16AA8FEB-7EA2-42D0-A842-EAAA96476156}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{75CC5797-173B-472A-839A-B8531801CE1D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC87786-CF3D-4963-A719-7973E325F43E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -2297,18 +2297,18 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="255.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="3"/>
+    <col min="1" max="1" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>200</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>201</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>202</v>
       </c>
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>203</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>204</v>
       </c>
@@ -2348,7 +2348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>205</v>
       </c>
@@ -2356,7 +2356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>206</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>207</v>
       </c>
@@ -2372,7 +2372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>208</v>
       </c>
@@ -2380,7 +2380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>209</v>
       </c>
@@ -2388,7 +2388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>210</v>
       </c>
@@ -2396,7 +2396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>211</v>
       </c>
@@ -2404,7 +2404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>212</v>
       </c>
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>213</v>
       </c>
@@ -2420,7 +2420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>214</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>215</v>
       </c>
@@ -2436,7 +2436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>216</v>
       </c>
@@ -2444,7 +2444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>217</v>
       </c>
@@ -2452,7 +2452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>218</v>
       </c>
@@ -2460,7 +2460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>219</v>
       </c>
@@ -2468,7 +2468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>220</v>
       </c>
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>221</v>
       </c>
@@ -2484,7 +2484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>222</v>
       </c>
@@ -2492,7 +2492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>223</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>224</v>
       </c>
@@ -2508,7 +2508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>225</v>
       </c>
@@ -2516,7 +2516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>226</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>227</v>
       </c>
@@ -2532,7 +2532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>228</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>229</v>
       </c>
@@ -2548,7 +2548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>230</v>
       </c>
@@ -2556,7 +2556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>231</v>
       </c>
@@ -2564,7 +2564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>232</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>233</v>
       </c>
@@ -2580,7 +2580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>234</v>
       </c>
@@ -2588,7 +2588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>235</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>236</v>
       </c>
@@ -2604,7 +2604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>237</v>
       </c>
@@ -2612,7 +2612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>238</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>239</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>240</v>
       </c>
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>241</v>
       </c>
@@ -2644,7 +2644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>242</v>
       </c>
@@ -2652,7 +2652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>243</v>
       </c>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>244</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>245</v>
       </c>
@@ -2676,7 +2676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>246</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>247</v>
       </c>
@@ -2692,7 +2692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>248</v>
       </c>
@@ -2700,7 +2700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>249</v>
       </c>
@@ -2708,7 +2708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>250</v>
       </c>
@@ -2716,7 +2716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>251</v>
       </c>
@@ -2724,7 +2724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>252</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>253</v>
       </c>
@@ -2740,7 +2740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>254</v>
       </c>
@@ -2748,7 +2748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>255</v>
       </c>
@@ -2756,7 +2756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>256</v>
       </c>
@@ -2764,7 +2764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>257</v>
       </c>
@@ -2772,7 +2772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>258</v>
       </c>
@@ -2780,7 +2780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>259</v>
       </c>
@@ -2788,7 +2788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>260</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>261</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>262</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>263</v>
       </c>
@@ -2820,7 +2820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>264</v>
       </c>
@@ -2828,7 +2828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>265</v>
       </c>
@@ -2836,7 +2836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>266</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>267</v>
       </c>
@@ -2852,7 +2852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>268</v>
       </c>
@@ -2860,7 +2860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>269</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>270</v>
       </c>
@@ -2876,7 +2876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>271</v>
       </c>
@@ -2884,7 +2884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>272</v>
       </c>
@@ -2892,7 +2892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>273</v>
       </c>
@@ -2900,7 +2900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>274</v>
       </c>
@@ -2908,7 +2908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>275</v>
       </c>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>276</v>
       </c>
@@ -2924,7 +2924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>277</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>278</v>
       </c>
@@ -2940,7 +2940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>279</v>
       </c>
@@ -2948,7 +2948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>280</v>
       </c>
@@ -2956,7 +2956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>281</v>
       </c>
@@ -2964,7 +2964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>282</v>
       </c>
@@ -2972,7 +2972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>283</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>284</v>
       </c>
@@ -2988,7 +2988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>285</v>
       </c>
@@ -2996,7 +2996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>286</v>
       </c>
@@ -3004,7 +3004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>287</v>
       </c>
@@ -3012,7 +3012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>288</v>
       </c>
@@ -3020,7 +3020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>289</v>
       </c>
@@ -3028,7 +3028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>290</v>
       </c>
@@ -3036,7 +3036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>291</v>
       </c>
@@ -3044,7 +3044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>292</v>
       </c>
@@ -3052,7 +3052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>293</v>
       </c>
@@ -3060,7 +3060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>294</v>
       </c>
@@ -3068,7 +3068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>295</v>
       </c>
@@ -3076,7 +3076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>296</v>
       </c>
@@ -3084,7 +3084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>297</v>
       </c>
@@ -3092,7 +3092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>298</v>
       </c>
@@ -3100,7 +3100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>299</v>
       </c>
@@ -3108,7 +3108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>300</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>301</v>
       </c>
@@ -3124,7 +3124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>302</v>
       </c>
@@ -3132,7 +3132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>303</v>
       </c>
@@ -3140,7 +3140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>304</v>
       </c>
@@ -3148,7 +3148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>305</v>
       </c>
@@ -3156,7 +3156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>306</v>
       </c>
@@ -3164,7 +3164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>307</v>
       </c>
@@ -3172,7 +3172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>308</v>
       </c>
@@ -3180,7 +3180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>309</v>
       </c>
@@ -3188,7 +3188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>310</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>311</v>
       </c>
@@ -3204,7 +3204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>312</v>
       </c>
@@ -3212,7 +3212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>313</v>
       </c>
@@ -3220,7 +3220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>314</v>
       </c>
@@ -3228,7 +3228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>315</v>
       </c>
@@ -3236,7 +3236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>316</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>317</v>
       </c>
@@ -3252,7 +3252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>318</v>
       </c>
@@ -3260,7 +3260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>319</v>
       </c>
@@ -3268,7 +3268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>320</v>
       </c>
@@ -3276,7 +3276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>321</v>
       </c>
@@ -3284,7 +3284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>322</v>
       </c>
@@ -3292,7 +3292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
         <v>323</v>
       </c>
@@ -3300,7 +3300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>324</v>
       </c>
@@ -3308,7 +3308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>325</v>
       </c>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>326</v>
       </c>
@@ -3324,7 +3324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>327</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>328</v>
       </c>
@@ -3340,7 +3340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>329</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>330</v>
       </c>
@@ -3356,7 +3356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>331</v>
       </c>
@@ -3364,7 +3364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>332</v>
       </c>
@@ -3372,7 +3372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>333</v>
       </c>
@@ -3380,7 +3380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>334</v>
       </c>
@@ -3388,7 +3388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>335</v>
       </c>
@@ -3396,7 +3396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>336</v>
       </c>
@@ -3404,7 +3404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>337</v>
       </c>
@@ -3412,7 +3412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>338</v>
       </c>
@@ -3420,7 +3420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>339</v>
       </c>
@@ -3428,7 +3428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>340</v>
       </c>
@@ -3436,7 +3436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>341</v>
       </c>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>342</v>
       </c>
@@ -3452,7 +3452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>343</v>
       </c>
@@ -3460,7 +3460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>344</v>
       </c>
@@ -3468,7 +3468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>345</v>
       </c>
@@ -3476,7 +3476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>346</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>347</v>
       </c>
@@ -3492,7 +3492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>348</v>
       </c>
@@ -3500,7 +3500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>349</v>
       </c>
@@ -3508,7 +3508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>350</v>
       </c>
@@ -3516,7 +3516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>351</v>
       </c>
@@ -3524,7 +3524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>352</v>
       </c>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>353</v>
       </c>
@@ -3540,7 +3540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>354</v>
       </c>
@@ -3548,7 +3548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>355</v>
       </c>
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>356</v>
       </c>
@@ -3564,7 +3564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>357</v>
       </c>
@@ -3572,7 +3572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>358</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>359</v>
       </c>
@@ -3588,7 +3588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>360</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>361</v>
       </c>
@@ -3604,7 +3604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>362</v>
       </c>
@@ -3612,7 +3612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>363</v>
       </c>
@@ -3620,7 +3620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>364</v>
       </c>
@@ -3628,7 +3628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>365</v>
       </c>
@@ -3636,7 +3636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>366</v>
       </c>
@@ -3644,7 +3644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>367</v>
       </c>
@@ -3652,7 +3652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>368</v>
       </c>
@@ -3660,7 +3660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>369</v>
       </c>
@@ -3668,7 +3668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>370</v>
       </c>
@@ -3676,7 +3676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>371</v>
       </c>
@@ -3684,7 +3684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>372</v>
       </c>
@@ -3692,7 +3692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>373</v>
       </c>
@@ -3700,7 +3700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>374</v>
       </c>
@@ -3708,7 +3708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>375</v>
       </c>
@@ -3716,7 +3716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>376</v>
       </c>
@@ -3724,7 +3724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>377</v>
       </c>
@@ -3732,7 +3732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>378</v>
       </c>
@@ -3740,7 +3740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>379</v>
       </c>
@@ -3748,7 +3748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>380</v>
       </c>
@@ -3756,7 +3756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>381</v>
       </c>
@@ -3764,7 +3764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>382</v>
       </c>
@@ -3772,7 +3772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>383</v>
       </c>
@@ -3780,7 +3780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>384</v>
       </c>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>385</v>
       </c>
@@ -3796,7 +3796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>386</v>
       </c>
@@ -3804,7 +3804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>387</v>
       </c>
@@ -3812,7 +3812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>388</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>389</v>
       </c>
@@ -3828,7 +3828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>390</v>
       </c>
@@ -3836,7 +3836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>391</v>
       </c>
@@ -3844,7 +3844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>392</v>
       </c>
@@ -3852,7 +3852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>393</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>394</v>
       </c>
@@ -3868,7 +3868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>395</v>
       </c>
@@ -3876,7 +3876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>396</v>
       </c>
@@ -3884,7 +3884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>397</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>398</v>
       </c>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>399</v>
       </c>
@@ -3908,7 +3908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>400</v>
       </c>
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>401</v>
       </c>
@@ -3924,7 +3924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>402</v>
       </c>
@@ -3932,7 +3932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>403</v>
       </c>
@@ -3940,7 +3940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>404</v>
       </c>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>405</v>
       </c>
@@ -3956,7 +3956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>406</v>
       </c>
@@ -3964,7 +3964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>407</v>
       </c>
@@ -3972,7 +3972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>408</v>
       </c>
@@ -3980,7 +3980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>409</v>
       </c>
@@ -3988,7 +3988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>410</v>
       </c>
@@ -3996,7 +3996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>411</v>
       </c>
@@ -4004,7 +4004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>412</v>
       </c>
@@ -4012,7 +4012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>413</v>
       </c>
@@ -4020,7 +4020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>414</v>
       </c>
@@ -4028,7 +4028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>415</v>
       </c>
@@ -4036,7 +4036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>416</v>
       </c>
@@ -4044,7 +4044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>417</v>
       </c>
@@ -4052,7 +4052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>418</v>
       </c>
@@ -4060,7 +4060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>419</v>
       </c>
@@ -4068,7 +4068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>420</v>
       </c>
@@ -4076,7 +4076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>421</v>
       </c>
@@ -4084,7 +4084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>422</v>
       </c>
@@ -4092,7 +4092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>423</v>
       </c>
@@ -4100,7 +4100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>424</v>
       </c>
@@ -4108,7 +4108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>425</v>
       </c>
@@ -4116,7 +4116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>426</v>
       </c>
@@ -4124,7 +4124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>427</v>
       </c>
@@ -4132,7 +4132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>428</v>
       </c>
@@ -4140,7 +4140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>429</v>
       </c>
@@ -4148,7 +4148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>430</v>
       </c>
@@ -4156,7 +4156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>431</v>
       </c>
@@ -4164,7 +4164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>432</v>
       </c>
@@ -4172,7 +4172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>433</v>
       </c>
@@ -4180,7 +4180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>434</v>
       </c>
@@ -4188,7 +4188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>435</v>
       </c>
@@ -4196,7 +4196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>436</v>
       </c>
@@ -4204,7 +4204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>437</v>
       </c>
@@ -4212,7 +4212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>438</v>
       </c>
@@ -4220,7 +4220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>439</v>
       </c>
@@ -4228,7 +4228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>440</v>
       </c>
@@ -4236,7 +4236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>441</v>
       </c>
@@ -4244,7 +4244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>442</v>
       </c>
@@ -4252,7 +4252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>443</v>
       </c>
@@ -4260,7 +4260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>444</v>
       </c>
@@ -4268,7 +4268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>445</v>
       </c>
@@ -4276,7 +4276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>446</v>
       </c>
@@ -4284,7 +4284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>447</v>
       </c>
@@ -4292,7 +4292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>448</v>
       </c>
@@ -4300,7 +4300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>449</v>
       </c>
@@ -4308,7 +4308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>450</v>
       </c>
@@ -4316,7 +4316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>451</v>
       </c>
@@ -4324,7 +4324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>452</v>
       </c>
@@ -4332,7 +4332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>453</v>
       </c>
@@ -4340,7 +4340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>454</v>
       </c>
@@ -4348,7 +4348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>455</v>
       </c>
@@ -4356,7 +4356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>456</v>
       </c>
@@ -4364,7 +4364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>457</v>
       </c>
@@ -4372,7 +4372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>458</v>
       </c>
@@ -4380,7 +4380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>459</v>
       </c>
@@ -4388,7 +4388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>460</v>
       </c>
@@ -4396,7 +4396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>461</v>
       </c>
@@ -4404,7 +4404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>462</v>
       </c>
@@ -4412,7 +4412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>463</v>
       </c>
@@ -4420,7 +4420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>464</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>465</v>
       </c>
@@ -4436,7 +4436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>466</v>
       </c>
@@ -4444,7 +4444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>467</v>
       </c>
@@ -4452,7 +4452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>468</v>
       </c>
@@ -4460,7 +4460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>469</v>
       </c>
@@ -4468,7 +4468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>470</v>
       </c>
@@ -4476,7 +4476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>471</v>
       </c>
@@ -4484,7 +4484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>472</v>
       </c>
@@ -4492,7 +4492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>473</v>
       </c>
@@ -4500,7 +4500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>474</v>
       </c>
@@ -4508,7 +4508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>475</v>
       </c>
@@ -4516,7 +4516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>476</v>
       </c>
@@ -4524,7 +4524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>477</v>
       </c>
@@ -4532,7 +4532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>478</v>
       </c>
@@ -4540,7 +4540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>479</v>
       </c>
@@ -4548,7 +4548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>480</v>
       </c>
@@ -4556,7 +4556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>481</v>
       </c>
@@ -4564,7 +4564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>482</v>
       </c>
@@ -4572,7 +4572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>483</v>
       </c>
@@ -4580,7 +4580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>484</v>
       </c>
@@ -4588,7 +4588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>485</v>
       </c>
@@ -4596,7 +4596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>486</v>
       </c>
@@ -4604,7 +4604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>487</v>
       </c>
@@ -4612,7 +4612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>488</v>
       </c>
@@ -4620,7 +4620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>489</v>
       </c>
@@ -4628,7 +4628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>490</v>
       </c>
@@ -4636,7 +4636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>491</v>
       </c>
@@ -4644,7 +4644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>492</v>
       </c>
@@ -4652,7 +4652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>493</v>
       </c>
@@ -4660,7 +4660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>494</v>
       </c>
@@ -4668,7 +4668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>495</v>
       </c>
@@ -4676,7 +4676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>496</v>
       </c>
@@ -4684,7 +4684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>497</v>
       </c>
@@ -4692,7 +4692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>498</v>
       </c>
@@ -4700,7 +4700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>499</v>
       </c>
@@ -4708,7 +4708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>500</v>
       </c>
@@ -4716,7 +4716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>501</v>
       </c>
@@ -4724,7 +4724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>502</v>
       </c>
@@ -4732,7 +4732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>503</v>
       </c>
@@ -4740,7 +4740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>504</v>
       </c>
@@ -4748,7 +4748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>505</v>
       </c>
@@ -4756,7 +4756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>506</v>
       </c>
@@ -4764,7 +4764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>507</v>
       </c>
@@ -4772,7 +4772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>508</v>
       </c>
@@ -4780,7 +4780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>509</v>
       </c>
@@ -4788,7 +4788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>510</v>
       </c>
@@ -4796,7 +4796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>511</v>
       </c>
@@ -4804,7 +4804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>512</v>
       </c>
@@ -4812,7 +4812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>513</v>
       </c>
@@ -4820,7 +4820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>514</v>
       </c>
@@ -4828,7 +4828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>515</v>
       </c>
@@ -4836,7 +4836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>516</v>
       </c>
@@ -4844,7 +4844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>517</v>
       </c>
@@ -4852,7 +4852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>518</v>
       </c>
@@ -4860,7 +4860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>519</v>
       </c>
@@ -4868,7 +4868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>520</v>
       </c>
@@ -4876,7 +4876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>521</v>
       </c>
@@ -4884,7 +4884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>522</v>
       </c>
@@ -4892,7 +4892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>523</v>
       </c>
@@ -4900,7 +4900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>524</v>
       </c>
@@ -4908,7 +4908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>525</v>
       </c>
@@ -4916,7 +4916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>526</v>
       </c>
@@ -4924,7 +4924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>527</v>
       </c>
@@ -4932,7 +4932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>528</v>
       </c>
@@ -4940,7 +4940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>529</v>
       </c>
@@ -4948,7 +4948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>530</v>
       </c>
@@ -4956,7 +4956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>531</v>
       </c>
@@ -4964,7 +4964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>532</v>
       </c>
@@ -4972,7 +4972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>533</v>
       </c>
@@ -4980,7 +4980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>534</v>
       </c>
@@ -4988,7 +4988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>535</v>
       </c>
@@ -4996,7 +4996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>536</v>
       </c>
@@ -5004,7 +5004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>537</v>
       </c>
@@ -5012,7 +5012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>538</v>
       </c>
@@ -5020,7 +5020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>539</v>
       </c>
@@ -5038,22 +5038,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D34CFC62-8C1C-41F5-8A63-9889D729142D}">
   <dimension ref="A1:B221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
       <selection activeCell="A220" sqref="A220"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="255.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="3"/>
+    <col min="1" max="1" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5061,7 +5061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5069,7 +5069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -5077,7 +5077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -5085,7 +5085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -5093,7 +5093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -5101,7 +5101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -5109,7 +5109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -5117,7 +5117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -5125,7 +5125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -5133,7 +5133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -5141,7 +5141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -5149,7 +5149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -5157,7 +5157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -5165,7 +5165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -5173,7 +5173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -5181,7 +5181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -5189,7 +5189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -5197,7 +5197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -5205,7 +5205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -5213,7 +5213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -5221,7 +5221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -5229,7 +5229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -5237,7 +5237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -5245,7 +5245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -5253,7 +5253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -5261,7 +5261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -5269,7 +5269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -5277,7 +5277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -5285,7 +5285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -5293,7 +5293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -5301,7 +5301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -5309,7 +5309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -5317,7 +5317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -5325,7 +5325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -5333,7 +5333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -5341,7 +5341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -5349,7 +5349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -5357,7 +5357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -5365,7 +5365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -5373,7 +5373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -5381,7 +5381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -5389,7 +5389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -5397,7 +5397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -5405,7 +5405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -5413,7 +5413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -5421,7 +5421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -5429,7 +5429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -5437,7 +5437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -5445,7 +5445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -5453,7 +5453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -5461,7 +5461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -5469,7 +5469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -5477,7 +5477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -5485,7 +5485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -5493,7 +5493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -5501,7 +5501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -5509,7 +5509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -5517,7 +5517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -5525,7 +5525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -5533,7 +5533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -5541,7 +5541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -5549,7 +5549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -5557,7 +5557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -5565,7 +5565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -5573,7 +5573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -5581,7 +5581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -5589,7 +5589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -5597,7 +5597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -5605,7 +5605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -5613,7 +5613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -5621,7 +5621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -5629,7 +5629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -5637,7 +5637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -5645,7 +5645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -5653,7 +5653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -5661,7 +5661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -5669,7 +5669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -5677,7 +5677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -5685,7 +5685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -5693,7 +5693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>80</v>
       </c>
@@ -5701,7 +5701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>81</v>
       </c>
@@ -5709,7 +5709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -5717,7 +5717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>83</v>
       </c>
@@ -5725,7 +5725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>84</v>
       </c>
@@ -5733,7 +5733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>85</v>
       </c>
@@ -5741,7 +5741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>86</v>
       </c>
@@ -5749,7 +5749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -5757,7 +5757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -5765,7 +5765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>89</v>
       </c>
@@ -5773,7 +5773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>90</v>
       </c>
@@ -5781,7 +5781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>91</v>
       </c>
@@ -5789,7 +5789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>92</v>
       </c>
@@ -5797,7 +5797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>93</v>
       </c>
@@ -5805,7 +5805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>94</v>
       </c>
@@ -5813,7 +5813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>95</v>
       </c>
@@ -5821,7 +5821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>96</v>
       </c>
@@ -5829,7 +5829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>97</v>
       </c>
@@ -5837,7 +5837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>98</v>
       </c>
@@ -5845,7 +5845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>99</v>
       </c>
@@ -5853,7 +5853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>100</v>
       </c>
@@ -5861,7 +5861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>101</v>
       </c>
@@ -5869,7 +5869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>102</v>
       </c>
@@ -5877,7 +5877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>103</v>
       </c>
@@ -5885,7 +5885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>104</v>
       </c>
@@ -5893,7 +5893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>105</v>
       </c>
@@ -5901,7 +5901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>106</v>
       </c>
@@ -5909,7 +5909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>107</v>
       </c>
@@ -5917,7 +5917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>108</v>
       </c>
@@ -5925,7 +5925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>109</v>
       </c>
@@ -5933,7 +5933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>110</v>
       </c>
@@ -5941,7 +5941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>111</v>
       </c>
@@ -5949,7 +5949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>112</v>
       </c>
@@ -5957,7 +5957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>113</v>
       </c>
@@ -5965,7 +5965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>114</v>
       </c>
@@ -5973,7 +5973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>115</v>
       </c>
@@ -5981,7 +5981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>116</v>
       </c>
@@ -5989,7 +5989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>117</v>
       </c>
@@ -5997,7 +5997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>118</v>
       </c>
@@ -6005,7 +6005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>119</v>
       </c>
@@ -6013,7 +6013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>120</v>
       </c>
@@ -6021,7 +6021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>121</v>
       </c>
@@ -6029,7 +6029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>122</v>
       </c>
@@ -6037,7 +6037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>123</v>
       </c>
@@ -6045,7 +6045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>124</v>
       </c>
@@ -6053,7 +6053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>125</v>
       </c>
@@ -6061,7 +6061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>126</v>
       </c>
@@ -6069,7 +6069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>127</v>
       </c>
@@ -6077,7 +6077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>128</v>
       </c>
@@ -6085,7 +6085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>129</v>
       </c>
@@ -6093,7 +6093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>130</v>
       </c>
@@ -6101,7 +6101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>131</v>
       </c>
@@ -6109,7 +6109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>132</v>
       </c>
@@ -6117,7 +6117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>133</v>
       </c>
@@ -6125,7 +6125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>134</v>
       </c>
@@ -6133,7 +6133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>135</v>
       </c>
@@ -6141,7 +6141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>136</v>
       </c>
@@ -6149,7 +6149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>137</v>
       </c>
@@ -6157,7 +6157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>138</v>
       </c>
@@ -6165,7 +6165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>139</v>
       </c>
@@ -6173,7 +6173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>140</v>
       </c>
@@ -6181,7 +6181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>141</v>
       </c>
@@ -6189,7 +6189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>142</v>
       </c>
@@ -6197,7 +6197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>143</v>
       </c>
@@ -6205,7 +6205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>144</v>
       </c>
@@ -6213,7 +6213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>145</v>
       </c>
@@ -6221,7 +6221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>146</v>
       </c>
@@ -6229,7 +6229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>147</v>
       </c>
@@ -6237,7 +6237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>148</v>
       </c>
@@ -6245,7 +6245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>149</v>
       </c>
@@ -6253,7 +6253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>150</v>
       </c>
@@ -6261,7 +6261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>151</v>
       </c>
@@ -6269,7 +6269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>152</v>
       </c>
@@ -6277,7 +6277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>153</v>
       </c>
@@ -6285,7 +6285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>154</v>
       </c>
@@ -6293,7 +6293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>155</v>
       </c>
@@ -6301,7 +6301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>156</v>
       </c>
@@ -6309,7 +6309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>157</v>
       </c>
@@ -6317,7 +6317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>158</v>
       </c>
@@ -6325,7 +6325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>159</v>
       </c>
@@ -6333,7 +6333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>160</v>
       </c>
@@ -6341,7 +6341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>161</v>
       </c>
@@ -6349,7 +6349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>162</v>
       </c>
@@ -6357,7 +6357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>163</v>
       </c>
@@ -6365,7 +6365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>164</v>
       </c>
@@ -6373,7 +6373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>165</v>
       </c>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>166</v>
       </c>
@@ -6389,7 +6389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>167</v>
       </c>
@@ -6397,7 +6397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>168</v>
       </c>
@@ -6405,7 +6405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>169</v>
       </c>
@@ -6413,7 +6413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>170</v>
       </c>
@@ -6421,7 +6421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>171</v>
       </c>
@@ -6429,7 +6429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>172</v>
       </c>
@@ -6437,7 +6437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>173</v>
       </c>
@@ -6445,7 +6445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>174</v>
       </c>
@@ -6453,7 +6453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>175</v>
       </c>
@@ -6461,7 +6461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>176</v>
       </c>
@@ -6469,7 +6469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>177</v>
       </c>
@@ -6477,7 +6477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>178</v>
       </c>
@@ -6485,7 +6485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>179</v>
       </c>
@@ -6493,7 +6493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>180</v>
       </c>
@@ -6501,7 +6501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>181</v>
       </c>
@@ -6509,7 +6509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>182</v>
       </c>
@@ -6517,7 +6517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>183</v>
       </c>
@@ -6525,7 +6525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>184</v>
       </c>
@@ -6533,7 +6533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>185</v>
       </c>
@@ -6541,7 +6541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>186</v>
       </c>
@@ -6549,7 +6549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>187</v>
       </c>
@@ -6557,7 +6557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>188</v>
       </c>
@@ -6565,7 +6565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>189</v>
       </c>
@@ -6573,7 +6573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>190</v>
       </c>
@@ -6581,7 +6581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>191</v>
       </c>
@@ -6589,7 +6589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>192</v>
       </c>
@@ -6597,7 +6597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>193</v>
       </c>
@@ -6605,7 +6605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>194</v>
       </c>
@@ -6613,7 +6613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>195</v>
       </c>
@@ -6621,7 +6621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>196</v>
       </c>
@@ -6629,7 +6629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>197</v>
       </c>
@@ -6637,7 +6637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>198</v>
       </c>
@@ -6645,7 +6645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>199</v>
       </c>
@@ -6653,7 +6653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>540</v>
       </c>
@@ -6661,7 +6661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>541</v>
       </c>
@@ -6669,7 +6669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>542</v>
       </c>
@@ -6677,7 +6677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>543</v>
       </c>
@@ -6685,7 +6685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>544</v>
       </c>
@@ -6693,7 +6693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>545</v>
       </c>
@@ -6701,7 +6701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>546</v>
       </c>
@@ -6709,7 +6709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>547</v>
       </c>
@@ -6717,7 +6717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>548</v>
       </c>
@@ -6725,7 +6725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>549</v>
       </c>
@@ -6733,7 +6733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>550</v>
       </c>
@@ -6741,7 +6741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>551</v>
       </c>
@@ -6749,7 +6749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>552</v>
       </c>
@@ -6757,7 +6757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>553</v>
       </c>
@@ -6765,7 +6765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>554</v>
       </c>
@@ -6773,7 +6773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>555</v>
       </c>
@@ -6781,7 +6781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>556</v>
       </c>
@@ -6789,7 +6789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>557</v>
       </c>
@@ -6797,15 +6797,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A220" t="s">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" s="4" t="s">
         <v>558</v>
       </c>
       <c r="B220" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>559</v>
       </c>
